--- a/Data/EC/NIT-9006518669.xlsx
+++ b/Data/EC/NIT-9006518669.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A417C75-5A87-4660-8F82-4270A480DC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{612A1A9F-E98C-4AC6-88A5-2C11D2561218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8E410A9B-E291-4E3D-B87F-DD798856996D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C2694146-58E3-4039-B3AF-8437BD21FF4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,316 +71,316 @@
     <t>JAVIER FELIPE ALZATE GOMEZ</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1128045714</t>
+  </si>
+  <si>
+    <t>ELAYNE STEFANY CONTRERAS MANCILLA</t>
+  </si>
+  <si>
+    <t>1047449101</t>
+  </si>
+  <si>
+    <t>VANESSA PAOLA CHRISTIANSEN CARDENAS</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>473590</t>
+  </si>
+  <si>
+    <t>NOE LANDA SOLANO</t>
+  </si>
+  <si>
+    <t>1143353372</t>
+  </si>
+  <si>
+    <t>KAREN QUINTANA PIEDRAHITA</t>
+  </si>
+  <si>
+    <t>10553858</t>
+  </si>
+  <si>
+    <t>XIMENA DIAZ CERRO</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1014200136</t>
+  </si>
+  <si>
+    <t>HENRY LEONARDO GOMEZ HERRERA</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>20116322</t>
+  </si>
+  <si>
+    <t>MARYSABEL NEGRETE VEGA</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1143370361</t>
+  </si>
+  <si>
+    <t>LUIS ALEJANDRO PAUTT MEDINA</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1128049371</t>
+  </si>
+  <si>
+    <t>VANESSA PAOLA ALVAREZ VITOLA</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>1020776219</t>
+  </si>
+  <si>
+    <t>LUISA XIMENA BECERRA GALVIS</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
     <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>1128045714</t>
-  </si>
-  <si>
-    <t>ELAYNE STEFANY CONTRERAS MANCILLA</t>
-  </si>
-  <si>
-    <t>1047449101</t>
-  </si>
-  <si>
-    <t>VANESSA PAOLA CHRISTIANSEN CARDENAS</t>
-  </si>
-  <si>
-    <t>CE</t>
-  </si>
-  <si>
-    <t>473590</t>
-  </si>
-  <si>
-    <t>NOE LANDA SOLANO</t>
-  </si>
-  <si>
-    <t>1143353372</t>
-  </si>
-  <si>
-    <t>KAREN QUINTANA PIEDRAHITA</t>
-  </si>
-  <si>
-    <t>10553858</t>
-  </si>
-  <si>
-    <t>XIMENA DIAZ CERRO</t>
-  </si>
-  <si>
-    <t>1143370361</t>
-  </si>
-  <si>
-    <t>LUIS ALEJANDRO PAUTT MEDINA</t>
-  </si>
-  <si>
-    <t>1128049371</t>
-  </si>
-  <si>
-    <t>VANESSA PAOLA ALVAREZ VITOLA</t>
-  </si>
-  <si>
-    <t>1020776219</t>
-  </si>
-  <si>
-    <t>LUISA XIMENA BECERRA GALVIS</t>
-  </si>
-  <si>
-    <t>1014200136</t>
-  </si>
-  <si>
-    <t>HENRY LEONARDO GOMEZ HERRERA</t>
-  </si>
-  <si>
-    <t>20116322</t>
-  </si>
-  <si>
-    <t>MARYSABEL NEGRETE VEGA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -479,7 +479,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -492,9 +494,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -694,23 +694,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -738,10 +738,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -794,7 +794,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D175F7CA-CDA6-7C26-6BBB-6E01919D7C9C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A9695AD-68C1-C847-6357-03548EF97480}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1145,7 +1145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999BC19C-F784-46F6-9939-7B99FB3E47DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E99EE1-B1F6-4B0D-8BC2-ADB37C3F3C47}">
   <dimension ref="B2:J418"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1323,7 +1323,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>24999</v>
+        <v>27840</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1337,19 +1337,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G17" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1360,19 +1360,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>30000</v>
       </c>
       <c r="G18" s="18">
-        <v>781242</v>
+        <v>750000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1380,22 +1380,22 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>592000</v>
       </c>
       <c r="G19" s="18">
-        <v>781242</v>
+        <v>19000000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1406,16 +1406,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>27839</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1429,19 +1429,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>60000</v>
       </c>
       <c r="G21" s="18">
-        <v>781242</v>
+        <v>1500000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1458,10 +1458,10 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>27840</v>
       </c>
       <c r="G22" s="18">
         <v>781242</v>
@@ -1475,19 +1475,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G23" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1498,19 +1498,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>30000</v>
       </c>
       <c r="G24" s="18">
-        <v>781242</v>
+        <v>750000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1521,16 +1521,16 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>27839</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1550,10 +1550,10 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>27840</v>
       </c>
       <c r="G26" s="18">
         <v>781242</v>
@@ -1567,19 +1567,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G27" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1590,19 +1590,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>30000</v>
       </c>
       <c r="G28" s="18">
-        <v>781242</v>
+        <v>750000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1613,16 +1613,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>27839</v>
       </c>
       <c r="G29" s="18">
         <v>781242</v>
@@ -1645,7 +1645,7 @@
         <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>27840</v>
       </c>
       <c r="G30" s="18">
         <v>781242</v>
@@ -1659,19 +1659,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G31" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1682,19 +1682,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>30000</v>
       </c>
       <c r="G32" s="18">
-        <v>781242</v>
+        <v>750000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1705,16 +1705,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>27839</v>
       </c>
       <c r="G33" s="18">
         <v>781242</v>
@@ -1734,10 +1734,10 @@
         <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>27840</v>
       </c>
       <c r="G34" s="18">
         <v>781242</v>
@@ -1751,19 +1751,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G35" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1774,19 +1774,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>30000</v>
       </c>
       <c r="G36" s="18">
-        <v>781242</v>
+        <v>750000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1797,16 +1797,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>27839</v>
       </c>
       <c r="G37" s="18">
         <v>781242</v>
@@ -1826,10 +1826,10 @@
         <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>27840</v>
       </c>
       <c r="G38" s="18">
         <v>781242</v>
@@ -1843,19 +1843,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G39" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1866,19 +1866,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F40" s="18">
-        <v>31249</v>
+        <v>30000</v>
       </c>
       <c r="G40" s="18">
-        <v>781242</v>
+        <v>750000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1889,16 +1889,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F41" s="18">
-        <v>31249</v>
+        <v>27839</v>
       </c>
       <c r="G41" s="18">
         <v>781242</v>
@@ -1918,10 +1918,10 @@
         <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F42" s="18">
-        <v>31249</v>
+        <v>27840</v>
       </c>
       <c r="G42" s="18">
         <v>781242</v>
@@ -1935,19 +1935,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F43" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G43" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1958,19 +1958,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F44" s="18">
-        <v>31249</v>
+        <v>30000</v>
       </c>
       <c r="G44" s="18">
-        <v>781242</v>
+        <v>750000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1981,16 +1981,16 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F45" s="18">
-        <v>31249</v>
+        <v>27839</v>
       </c>
       <c r="G45" s="18">
         <v>781242</v>
@@ -2010,10 +2010,10 @@
         <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F46" s="18">
-        <v>31249</v>
+        <v>27840</v>
       </c>
       <c r="G46" s="18">
         <v>781242</v>
@@ -2027,19 +2027,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F47" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G47" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -2050,19 +2050,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F48" s="18">
-        <v>31249</v>
+        <v>30000</v>
       </c>
       <c r="G48" s="18">
-        <v>781242</v>
+        <v>750000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2073,16 +2073,16 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F49" s="18">
-        <v>31249</v>
+        <v>27839</v>
       </c>
       <c r="G49" s="18">
         <v>781242</v>
@@ -2102,10 +2102,10 @@
         <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F50" s="18">
-        <v>31249</v>
+        <v>27840</v>
       </c>
       <c r="G50" s="18">
         <v>781242</v>
@@ -2119,19 +2119,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F51" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G51" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2142,19 +2142,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F52" s="18">
-        <v>31249</v>
+        <v>30000</v>
       </c>
       <c r="G52" s="18">
-        <v>781242</v>
+        <v>750000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2165,16 +2165,16 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F53" s="18">
-        <v>31249</v>
+        <v>27839</v>
       </c>
       <c r="G53" s="18">
         <v>781242</v>
@@ -2194,10 +2194,10 @@
         <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="F54" s="18">
-        <v>31249</v>
+        <v>27840</v>
       </c>
       <c r="G54" s="18">
         <v>781242</v>
@@ -2211,19 +2211,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F55" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G55" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2234,19 +2234,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="F56" s="18">
-        <v>31249</v>
+        <v>30000</v>
       </c>
       <c r="G56" s="18">
-        <v>781242</v>
+        <v>750000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2257,16 +2257,16 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="F57" s="18">
-        <v>31249</v>
+        <v>27839</v>
       </c>
       <c r="G57" s="18">
         <v>781242</v>
@@ -2280,19 +2280,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="F58" s="18">
-        <v>31249</v>
+        <v>1867</v>
       </c>
       <c r="G58" s="18">
-        <v>781242</v>
+        <v>1400000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2309,10 +2309,10 @@
         <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="F59" s="18">
-        <v>31249</v>
+        <v>27840</v>
       </c>
       <c r="G59" s="18">
         <v>781242</v>
@@ -2326,19 +2326,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="F60" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G60" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2349,19 +2349,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F61" s="18">
-        <v>31249</v>
+        <v>30000</v>
       </c>
       <c r="G61" s="18">
-        <v>781242</v>
+        <v>750000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2372,16 +2372,16 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="F62" s="18">
-        <v>31249</v>
+        <v>27839</v>
       </c>
       <c r="G62" s="18">
         <v>781242</v>
@@ -2401,10 +2401,10 @@
         <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="F63" s="18">
-        <v>31249</v>
+        <v>27840</v>
       </c>
       <c r="G63" s="18">
         <v>781242</v>
@@ -2418,19 +2418,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="F64" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G64" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2441,19 +2441,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F65" s="18">
-        <v>31249</v>
+        <v>30000</v>
       </c>
       <c r="G65" s="18">
-        <v>781242</v>
+        <v>750000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2464,16 +2464,16 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="F66" s="18">
-        <v>31249</v>
+        <v>27839</v>
       </c>
       <c r="G66" s="18">
         <v>781242</v>
@@ -2493,10 +2493,10 @@
         <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="F67" s="18">
-        <v>31249</v>
+        <v>27840</v>
       </c>
       <c r="G67" s="18">
         <v>781242</v>
@@ -2510,19 +2510,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="F68" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G68" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2533,19 +2533,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="F69" s="18">
-        <v>31249</v>
+        <v>30000</v>
       </c>
       <c r="G69" s="18">
-        <v>781242</v>
+        <v>750000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2556,16 +2556,16 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="F70" s="18">
-        <v>31249</v>
+        <v>27839</v>
       </c>
       <c r="G70" s="18">
         <v>781242</v>
@@ -2585,10 +2585,10 @@
         <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="F71" s="18">
-        <v>31249</v>
+        <v>27840</v>
       </c>
       <c r="G71" s="18">
         <v>781242</v>
@@ -2602,19 +2602,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="F72" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G72" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2625,19 +2625,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F73" s="18">
-        <v>27840</v>
+        <v>30000</v>
       </c>
       <c r="G73" s="18">
-        <v>781242</v>
+        <v>750000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2648,16 +2648,16 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="F74" s="18">
-        <v>27840</v>
+        <v>27839</v>
       </c>
       <c r="G74" s="18">
         <v>781242</v>
@@ -2677,7 +2677,7 @@
         <v>10</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="F75" s="18">
         <v>27840</v>
@@ -2694,19 +2694,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="F76" s="18">
-        <v>27840</v>
+        <v>48000</v>
       </c>
       <c r="G76" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2717,19 +2717,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="F77" s="18">
-        <v>27840</v>
+        <v>30000</v>
       </c>
       <c r="G77" s="18">
-        <v>781242</v>
+        <v>750000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2740,16 +2740,16 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="F78" s="18">
-        <v>27840</v>
+        <v>27839</v>
       </c>
       <c r="G78" s="18">
         <v>781242</v>
@@ -2769,7 +2769,7 @@
         <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="F79" s="18">
         <v>27840</v>
@@ -2786,19 +2786,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="F80" s="18">
-        <v>27840</v>
+        <v>48000</v>
       </c>
       <c r="G80" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2809,19 +2809,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="F81" s="18">
-        <v>27840</v>
+        <v>30000</v>
       </c>
       <c r="G81" s="18">
-        <v>781242</v>
+        <v>750000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2832,16 +2832,16 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="F82" s="18">
-        <v>27840</v>
+        <v>27839</v>
       </c>
       <c r="G82" s="18">
         <v>781242</v>
@@ -2861,7 +2861,7 @@
         <v>10</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="F83" s="18">
         <v>27840</v>
@@ -2878,19 +2878,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="F84" s="18">
-        <v>27840</v>
+        <v>48000</v>
       </c>
       <c r="G84" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2901,19 +2901,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F85" s="18">
-        <v>27840</v>
+        <v>30000</v>
       </c>
       <c r="G85" s="18">
-        <v>781242</v>
+        <v>750000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2924,16 +2924,16 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="F86" s="18">
-        <v>27840</v>
+        <v>27839</v>
       </c>
       <c r="G86" s="18">
         <v>781242</v>
@@ -2953,7 +2953,7 @@
         <v>10</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="F87" s="18">
         <v>27840</v>
@@ -2970,19 +2970,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="F88" s="18">
-        <v>27840</v>
+        <v>48000</v>
       </c>
       <c r="G88" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2993,19 +2993,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="F89" s="18">
-        <v>27840</v>
+        <v>30000</v>
       </c>
       <c r="G89" s="18">
-        <v>781242</v>
+        <v>750000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -3016,16 +3016,16 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="F90" s="18">
-        <v>27840</v>
+        <v>27839</v>
       </c>
       <c r="G90" s="18">
         <v>781242</v>
@@ -3045,7 +3045,7 @@
         <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="F91" s="18">
         <v>27840</v>
@@ -3062,19 +3062,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="F92" s="18">
-        <v>27840</v>
+        <v>48000</v>
       </c>
       <c r="G92" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3085,19 +3085,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="F93" s="18">
-        <v>27840</v>
+        <v>30000</v>
       </c>
       <c r="G93" s="18">
-        <v>781242</v>
+        <v>750000</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3108,16 +3108,16 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="F94" s="18">
-        <v>27840</v>
+        <v>27839</v>
       </c>
       <c r="G94" s="18">
         <v>781242</v>
@@ -3131,19 +3131,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="F95" s="18">
-        <v>27840</v>
+        <v>19997</v>
       </c>
       <c r="G95" s="18">
-        <v>781242</v>
+        <v>789369</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3160,7 +3160,7 @@
         <v>10</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="F96" s="18">
         <v>27840</v>
@@ -3177,19 +3177,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="F97" s="18">
-        <v>27840</v>
+        <v>48000</v>
       </c>
       <c r="G97" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3200,19 +3200,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="F98" s="18">
-        <v>27840</v>
+        <v>30000</v>
       </c>
       <c r="G98" s="18">
-        <v>781242</v>
+        <v>750000</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3223,19 +3223,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="F99" s="18">
-        <v>38400</v>
+        <v>27839</v>
       </c>
       <c r="G99" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3246,19 +3246,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="F100" s="18">
-        <v>48000</v>
+        <v>27840</v>
       </c>
       <c r="G100" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3269,13 +3269,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="F101" s="18">
         <v>48000</v>
@@ -3292,19 +3292,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F102" s="18">
-        <v>48000</v>
+        <v>30000</v>
       </c>
       <c r="G102" s="18">
-        <v>1200000</v>
+        <v>750000</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3315,19 +3315,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="F103" s="18">
-        <v>48000</v>
+        <v>27839</v>
       </c>
       <c r="G103" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3338,19 +3338,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="F104" s="18">
-        <v>48000</v>
+        <v>27840</v>
       </c>
       <c r="G104" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3361,13 +3361,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="F105" s="18">
         <v>48000</v>
@@ -3384,19 +3384,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="F106" s="18">
-        <v>48000</v>
+        <v>30000</v>
       </c>
       <c r="G106" s="18">
-        <v>1200000</v>
+        <v>750000</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3407,19 +3407,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="F107" s="18">
-        <v>48000</v>
+        <v>27839</v>
       </c>
       <c r="G107" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3430,19 +3430,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F108" s="18">
-        <v>48000</v>
+        <v>27840</v>
       </c>
       <c r="G108" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3453,13 +3453,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F109" s="18">
         <v>48000</v>
@@ -3476,19 +3476,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="F110" s="18">
-        <v>48000</v>
+        <v>30000</v>
       </c>
       <c r="G110" s="18">
-        <v>1200000</v>
+        <v>750000</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3499,19 +3499,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="F111" s="18">
-        <v>48000</v>
+        <v>27839</v>
       </c>
       <c r="G111" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3522,19 +3522,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F112" s="18">
-        <v>48000</v>
+        <v>27840</v>
       </c>
       <c r="G112" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3545,13 +3545,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="F113" s="18">
         <v>48000</v>
@@ -3568,19 +3568,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="F114" s="18">
-        <v>48000</v>
+        <v>30000</v>
       </c>
       <c r="G114" s="18">
-        <v>1200000</v>
+        <v>750000</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3591,19 +3591,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="F115" s="18">
-        <v>48000</v>
+        <v>27839</v>
       </c>
       <c r="G115" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3614,19 +3614,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F116" s="18">
-        <v>48000</v>
+        <v>27840</v>
       </c>
       <c r="G116" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3637,13 +3637,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="F117" s="18">
         <v>48000</v>
@@ -3660,19 +3660,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F118" s="18">
-        <v>48000</v>
+        <v>30000</v>
       </c>
       <c r="G118" s="18">
-        <v>1200000</v>
+        <v>750000</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3683,19 +3683,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F119" s="18">
-        <v>48000</v>
+        <v>27839</v>
       </c>
       <c r="G119" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3706,19 +3706,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="F120" s="18">
-        <v>48000</v>
+        <v>27840</v>
       </c>
       <c r="G120" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3729,13 +3729,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="F121" s="18">
         <v>48000</v>
@@ -3752,19 +3752,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F122" s="18">
-        <v>48000</v>
+        <v>30000</v>
       </c>
       <c r="G122" s="18">
-        <v>1200000</v>
+        <v>750000</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3775,19 +3775,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="F123" s="18">
-        <v>48000</v>
+        <v>27839</v>
       </c>
       <c r="G123" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3798,19 +3798,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F124" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G124" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3821,13 +3821,13 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="F125" s="18">
         <v>48000</v>
@@ -3844,19 +3844,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="F126" s="18">
-        <v>48000</v>
+        <v>30000</v>
       </c>
       <c r="G126" s="18">
-        <v>1200000</v>
+        <v>750000</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3867,19 +3867,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="F127" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G127" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3890,19 +3890,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F128" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G128" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3913,13 +3913,13 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F129" s="18">
         <v>48000</v>
@@ -3936,19 +3936,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F130" s="18">
-        <v>48000</v>
+        <v>30000</v>
       </c>
       <c r="G130" s="18">
-        <v>1200000</v>
+        <v>750000</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -3959,19 +3959,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F131" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G131" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -3982,19 +3982,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F132" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G132" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -4005,13 +4005,13 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F133" s="18">
         <v>48000</v>
@@ -4028,19 +4028,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F134" s="18">
-        <v>48000</v>
+        <v>30000</v>
       </c>
       <c r="G134" s="18">
-        <v>1200000</v>
+        <v>750000</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -4051,19 +4051,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F135" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G135" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -4074,19 +4074,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F136" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G136" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -4097,13 +4097,13 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F137" s="18">
         <v>48000</v>
@@ -4120,19 +4120,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F138" s="18">
-        <v>48000</v>
+        <v>30000</v>
       </c>
       <c r="G138" s="18">
-        <v>1200000</v>
+        <v>750000</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4143,19 +4143,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F139" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G139" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4166,19 +4166,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F140" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G140" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4189,13 +4189,13 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F141" s="18">
         <v>48000</v>
@@ -4212,19 +4212,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F142" s="18">
-        <v>48000</v>
+        <v>30000</v>
       </c>
       <c r="G142" s="18">
-        <v>1200000</v>
+        <v>750000</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4235,19 +4235,19 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F143" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G143" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
@@ -4258,19 +4258,19 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="E144" s="16" t="s">
         <v>56</v>
       </c>
       <c r="F144" s="18">
-        <v>48000</v>
+        <v>20036</v>
       </c>
       <c r="G144" s="18">
-        <v>1200000</v>
+        <v>939182</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
@@ -4281,19 +4281,19 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F145" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G145" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -4304,13 +4304,13 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F146" s="18">
         <v>48000</v>
@@ -4327,19 +4327,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E147" s="16" t="s">
         <v>59</v>
       </c>
       <c r="F147" s="18">
-        <v>48000</v>
+        <v>30000</v>
       </c>
       <c r="G147" s="18">
-        <v>1200000</v>
+        <v>750000</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4350,19 +4350,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F148" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G148" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4373,19 +4373,19 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F149" s="18">
-        <v>48000</v>
+        <v>37567</v>
       </c>
       <c r="G149" s="18">
-        <v>1200000</v>
+        <v>939182</v>
       </c>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
@@ -4396,19 +4396,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F150" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G150" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4419,13 +4419,13 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F151" s="18">
         <v>48000</v>
@@ -4442,19 +4442,19 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F152" s="18">
-        <v>48000</v>
+        <v>30000</v>
       </c>
       <c r="G152" s="18">
-        <v>1200000</v>
+        <v>750000</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -4465,19 +4465,19 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F153" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G153" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
@@ -4488,19 +4488,19 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F154" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G154" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
@@ -4511,13 +4511,13 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F155" s="18">
         <v>48000</v>
@@ -4534,19 +4534,19 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F156" s="18">
-        <v>48000</v>
+        <v>30000</v>
       </c>
       <c r="G156" s="18">
-        <v>1200000</v>
+        <v>750000</v>
       </c>
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
@@ -4557,19 +4557,19 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F157" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G157" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -4580,19 +4580,19 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F158" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G158" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
@@ -4603,13 +4603,13 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F159" s="18">
         <v>48000</v>
@@ -4626,19 +4626,19 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F160" s="18">
-        <v>48000</v>
+        <v>30000</v>
       </c>
       <c r="G160" s="18">
-        <v>1200000</v>
+        <v>750000</v>
       </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
@@ -4649,19 +4649,19 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F161" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G161" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
@@ -4672,19 +4672,19 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="F162" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G162" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -4695,13 +4695,13 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F163" s="18">
         <v>48000</v>
@@ -4718,19 +4718,19 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="F164" s="18">
-        <v>48000</v>
+        <v>30000</v>
       </c>
       <c r="G164" s="18">
-        <v>1200000</v>
+        <v>750000</v>
       </c>
       <c r="H164" s="19"/>
       <c r="I164" s="19"/>
@@ -4741,19 +4741,19 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F165" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G165" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
@@ -4764,19 +4764,19 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="F166" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G166" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
@@ -4787,13 +4787,13 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="F167" s="18">
         <v>48000</v>
@@ -4810,19 +4810,19 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F168" s="18">
-        <v>48000</v>
+        <v>30000</v>
       </c>
       <c r="G168" s="18">
-        <v>1200000</v>
+        <v>750000</v>
       </c>
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
@@ -4833,19 +4833,19 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="F169" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G169" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
@@ -4856,19 +4856,19 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F170" s="18">
-        <v>48000</v>
+        <v>160000</v>
       </c>
       <c r="G170" s="18">
-        <v>1200000</v>
+        <v>4000000</v>
       </c>
       <c r="H170" s="19"/>
       <c r="I170" s="19"/>
@@ -4879,19 +4879,19 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="F171" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G171" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
@@ -4902,13 +4902,13 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="F172" s="18">
         <v>48000</v>
@@ -4925,19 +4925,19 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F173" s="18">
-        <v>48000</v>
+        <v>30000</v>
       </c>
       <c r="G173" s="18">
-        <v>1200000</v>
+        <v>750000</v>
       </c>
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
@@ -4948,19 +4948,19 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="F174" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G174" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H174" s="19"/>
       <c r="I174" s="19"/>
@@ -4971,19 +4971,19 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="F175" s="18">
-        <v>48000</v>
+        <v>160000</v>
       </c>
       <c r="G175" s="18">
-        <v>1200000</v>
+        <v>4000000</v>
       </c>
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
@@ -4994,19 +4994,19 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="F176" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G176" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H176" s="19"/>
       <c r="I176" s="19"/>
@@ -5017,13 +5017,13 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="F177" s="18">
         <v>48000</v>
@@ -5040,19 +5040,19 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="F178" s="18">
-        <v>48000</v>
+        <v>30000</v>
       </c>
       <c r="G178" s="18">
-        <v>1200000</v>
+        <v>750000</v>
       </c>
       <c r="H178" s="19"/>
       <c r="I178" s="19"/>
@@ -5063,19 +5063,19 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="F179" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G179" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H179" s="19"/>
       <c r="I179" s="19"/>
@@ -5086,19 +5086,19 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="F180" s="18">
-        <v>48000</v>
+        <v>160000</v>
       </c>
       <c r="G180" s="18">
-        <v>1200000</v>
+        <v>4000000</v>
       </c>
       <c r="H180" s="19"/>
       <c r="I180" s="19"/>
@@ -5109,19 +5109,19 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="F181" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G181" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H181" s="19"/>
       <c r="I181" s="19"/>
@@ -5132,19 +5132,19 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="F182" s="18">
-        <v>24000</v>
+        <v>48000</v>
       </c>
       <c r="G182" s="18">
-        <v>750000</v>
+        <v>1200000</v>
       </c>
       <c r="H182" s="19"/>
       <c r="I182" s="19"/>
@@ -5155,13 +5155,13 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="F183" s="18">
         <v>30000</v>
@@ -5178,19 +5178,19 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="F184" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G184" s="18">
-        <v>750000</v>
+        <v>781242</v>
       </c>
       <c r="H184" s="19"/>
       <c r="I184" s="19"/>
@@ -5201,19 +5201,19 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="F185" s="18">
-        <v>30000</v>
+        <v>160000</v>
       </c>
       <c r="G185" s="18">
-        <v>750000</v>
+        <v>4000000</v>
       </c>
       <c r="H185" s="19"/>
       <c r="I185" s="19"/>
@@ -5224,19 +5224,19 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="F186" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G186" s="18">
-        <v>750000</v>
+        <v>781242</v>
       </c>
       <c r="H186" s="19"/>
       <c r="I186" s="19"/>
@@ -5247,19 +5247,19 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="F187" s="18">
-        <v>30000</v>
+        <v>48000</v>
       </c>
       <c r="G187" s="18">
-        <v>750000</v>
+        <v>1200000</v>
       </c>
       <c r="H187" s="19"/>
       <c r="I187" s="19"/>
@@ -5270,13 +5270,13 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="F188" s="18">
         <v>30000</v>
@@ -5293,19 +5293,19 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="F189" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G189" s="18">
-        <v>750000</v>
+        <v>781242</v>
       </c>
       <c r="H189" s="19"/>
       <c r="I189" s="19"/>
@@ -5316,19 +5316,19 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="F190" s="18">
-        <v>30000</v>
+        <v>160000</v>
       </c>
       <c r="G190" s="18">
-        <v>750000</v>
+        <v>4000000</v>
       </c>
       <c r="H190" s="19"/>
       <c r="I190" s="19"/>
@@ -5339,19 +5339,19 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="F191" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G191" s="18">
-        <v>750000</v>
+        <v>781242</v>
       </c>
       <c r="H191" s="19"/>
       <c r="I191" s="19"/>
@@ -5362,19 +5362,19 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="F192" s="18">
-        <v>30000</v>
+        <v>48000</v>
       </c>
       <c r="G192" s="18">
-        <v>750000</v>
+        <v>1200000</v>
       </c>
       <c r="H192" s="19"/>
       <c r="I192" s="19"/>
@@ -5385,13 +5385,13 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="F193" s="18">
         <v>30000</v>
@@ -5408,19 +5408,19 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="F194" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G194" s="18">
-        <v>750000</v>
+        <v>781242</v>
       </c>
       <c r="H194" s="19"/>
       <c r="I194" s="19"/>
@@ -5431,19 +5431,19 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="F195" s="18">
-        <v>30000</v>
+        <v>160000</v>
       </c>
       <c r="G195" s="18">
-        <v>750000</v>
+        <v>4000000</v>
       </c>
       <c r="H195" s="19"/>
       <c r="I195" s="19"/>
@@ -5454,19 +5454,19 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="F196" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G196" s="18">
-        <v>750000</v>
+        <v>781242</v>
       </c>
       <c r="H196" s="19"/>
       <c r="I196" s="19"/>
@@ -5477,19 +5477,19 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="F197" s="18">
-        <v>30000</v>
+        <v>48000</v>
       </c>
       <c r="G197" s="18">
-        <v>750000</v>
+        <v>1200000</v>
       </c>
       <c r="H197" s="19"/>
       <c r="I197" s="19"/>
@@ -5500,13 +5500,13 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="F198" s="18">
         <v>30000</v>
@@ -5523,19 +5523,19 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="F199" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G199" s="18">
-        <v>750000</v>
+        <v>781242</v>
       </c>
       <c r="H199" s="19"/>
       <c r="I199" s="19"/>
@@ -5546,19 +5546,19 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="F200" s="18">
-        <v>30000</v>
+        <v>160000</v>
       </c>
       <c r="G200" s="18">
-        <v>750000</v>
+        <v>4000000</v>
       </c>
       <c r="H200" s="19"/>
       <c r="I200" s="19"/>
@@ -5569,19 +5569,19 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="F201" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G201" s="18">
-        <v>750000</v>
+        <v>781242</v>
       </c>
       <c r="H201" s="19"/>
       <c r="I201" s="19"/>
@@ -5592,19 +5592,19 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="F202" s="18">
-        <v>30000</v>
+        <v>48000</v>
       </c>
       <c r="G202" s="18">
-        <v>750000</v>
+        <v>1200000</v>
       </c>
       <c r="H202" s="19"/>
       <c r="I202" s="19"/>
@@ -5615,13 +5615,13 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="F203" s="18">
         <v>30000</v>
@@ -5638,19 +5638,19 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="F204" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G204" s="18">
-        <v>750000</v>
+        <v>781242</v>
       </c>
       <c r="H204" s="19"/>
       <c r="I204" s="19"/>
@@ -5661,19 +5661,19 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="F205" s="18">
-        <v>30000</v>
+        <v>160000</v>
       </c>
       <c r="G205" s="18">
-        <v>750000</v>
+        <v>4000000</v>
       </c>
       <c r="H205" s="19"/>
       <c r="I205" s="19"/>
@@ -5684,19 +5684,19 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="F206" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G206" s="18">
-        <v>750000</v>
+        <v>781242</v>
       </c>
       <c r="H206" s="19"/>
       <c r="I206" s="19"/>
@@ -5707,19 +5707,19 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="F207" s="18">
-        <v>30000</v>
+        <v>48000</v>
       </c>
       <c r="G207" s="18">
-        <v>750000</v>
+        <v>1200000</v>
       </c>
       <c r="H207" s="19"/>
       <c r="I207" s="19"/>
@@ -5730,13 +5730,13 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="F208" s="18">
         <v>30000</v>
@@ -5753,19 +5753,19 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="F209" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G209" s="18">
-        <v>750000</v>
+        <v>781242</v>
       </c>
       <c r="H209" s="19"/>
       <c r="I209" s="19"/>
@@ -5776,19 +5776,19 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="F210" s="18">
-        <v>30000</v>
+        <v>160000</v>
       </c>
       <c r="G210" s="18">
-        <v>750000</v>
+        <v>4000000</v>
       </c>
       <c r="H210" s="19"/>
       <c r="I210" s="19"/>
@@ -5799,19 +5799,19 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="F211" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G211" s="18">
-        <v>750000</v>
+        <v>781242</v>
       </c>
       <c r="H211" s="19"/>
       <c r="I211" s="19"/>
@@ -5822,19 +5822,19 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="F212" s="18">
-        <v>30000</v>
+        <v>48000</v>
       </c>
       <c r="G212" s="18">
-        <v>750000</v>
+        <v>1200000</v>
       </c>
       <c r="H212" s="19"/>
       <c r="I212" s="19"/>
@@ -5845,13 +5845,13 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="F213" s="18">
         <v>30000</v>
@@ -5868,19 +5868,19 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="F214" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G214" s="18">
-        <v>750000</v>
+        <v>781242</v>
       </c>
       <c r="H214" s="19"/>
       <c r="I214" s="19"/>
@@ -5891,19 +5891,19 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="F215" s="18">
-        <v>30000</v>
+        <v>160000</v>
       </c>
       <c r="G215" s="18">
-        <v>750000</v>
+        <v>4000000</v>
       </c>
       <c r="H215" s="19"/>
       <c r="I215" s="19"/>
@@ -5914,19 +5914,19 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="F216" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G216" s="18">
-        <v>750000</v>
+        <v>781242</v>
       </c>
       <c r="H216" s="19"/>
       <c r="I216" s="19"/>
@@ -5937,19 +5937,19 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="F217" s="18">
-        <v>30000</v>
+        <v>48000</v>
       </c>
       <c r="G217" s="18">
-        <v>750000</v>
+        <v>1200000</v>
       </c>
       <c r="H217" s="19"/>
       <c r="I217" s="19"/>
@@ -5960,13 +5960,13 @@
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="F218" s="18">
         <v>30000</v>
@@ -5983,19 +5983,19 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="F219" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G219" s="18">
-        <v>750000</v>
+        <v>781242</v>
       </c>
       <c r="H219" s="19"/>
       <c r="I219" s="19"/>
@@ -6006,19 +6006,19 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="F220" s="18">
-        <v>30000</v>
+        <v>160000</v>
       </c>
       <c r="G220" s="18">
-        <v>750000</v>
+        <v>4000000</v>
       </c>
       <c r="H220" s="19"/>
       <c r="I220" s="19"/>
@@ -6029,19 +6029,19 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="F221" s="18">
-        <v>30000</v>
+        <v>120000</v>
       </c>
       <c r="G221" s="18">
-        <v>750000</v>
+        <v>3000000</v>
       </c>
       <c r="H221" s="19"/>
       <c r="I221" s="19"/>
@@ -6052,19 +6052,19 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="F222" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G222" s="18">
-        <v>750000</v>
+        <v>781242</v>
       </c>
       <c r="H222" s="19"/>
       <c r="I222" s="19"/>
@@ -6075,19 +6075,19 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="F223" s="18">
-        <v>30000</v>
+        <v>48000</v>
       </c>
       <c r="G223" s="18">
-        <v>750000</v>
+        <v>1200000</v>
       </c>
       <c r="H223" s="19"/>
       <c r="I223" s="19"/>
@@ -6098,13 +6098,13 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="F224" s="18">
         <v>30000</v>
@@ -6121,19 +6121,19 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="F225" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G225" s="18">
-        <v>750000</v>
+        <v>781242</v>
       </c>
       <c r="H225" s="19"/>
       <c r="I225" s="19"/>
@@ -6144,19 +6144,19 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="F226" s="18">
-        <v>30000</v>
+        <v>160000</v>
       </c>
       <c r="G226" s="18">
-        <v>750000</v>
+        <v>4000000</v>
       </c>
       <c r="H226" s="19"/>
       <c r="I226" s="19"/>
@@ -6167,19 +6167,19 @@
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="F227" s="18">
-        <v>30000</v>
+        <v>120000</v>
       </c>
       <c r="G227" s="18">
-        <v>750000</v>
+        <v>3000000</v>
       </c>
       <c r="H227" s="19"/>
       <c r="I227" s="19"/>
@@ -6190,19 +6190,19 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="F228" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G228" s="18">
-        <v>750000</v>
+        <v>781242</v>
       </c>
       <c r="H228" s="19"/>
       <c r="I228" s="19"/>
@@ -6213,19 +6213,19 @@
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="F229" s="18">
-        <v>30000</v>
+        <v>48000</v>
       </c>
       <c r="G229" s="18">
-        <v>750000</v>
+        <v>1200000</v>
       </c>
       <c r="H229" s="19"/>
       <c r="I229" s="19"/>
@@ -6236,13 +6236,13 @@
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="F230" s="18">
         <v>30000</v>
@@ -6259,19 +6259,19 @@
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F231" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G231" s="18">
-        <v>750000</v>
+        <v>781242</v>
       </c>
       <c r="H231" s="19"/>
       <c r="I231" s="19"/>
@@ -6282,19 +6282,19 @@
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="F232" s="18">
-        <v>30000</v>
+        <v>160000</v>
       </c>
       <c r="G232" s="18">
-        <v>750000</v>
+        <v>4000000</v>
       </c>
       <c r="H232" s="19"/>
       <c r="I232" s="19"/>
@@ -6305,19 +6305,19 @@
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="F233" s="18">
-        <v>30000</v>
+        <v>120000</v>
       </c>
       <c r="G233" s="18">
-        <v>750000</v>
+        <v>3000000</v>
       </c>
       <c r="H233" s="19"/>
       <c r="I233" s="19"/>
@@ -6328,19 +6328,19 @@
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="F234" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G234" s="18">
-        <v>750000</v>
+        <v>781242</v>
       </c>
       <c r="H234" s="19"/>
       <c r="I234" s="19"/>
@@ -6351,19 +6351,19 @@
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="F235" s="18">
-        <v>30000</v>
+        <v>48000</v>
       </c>
       <c r="G235" s="18">
-        <v>750000</v>
+        <v>1200000</v>
       </c>
       <c r="H235" s="19"/>
       <c r="I235" s="19"/>
@@ -6374,13 +6374,13 @@
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="F236" s="18">
         <v>30000</v>
@@ -6397,19 +6397,19 @@
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="F237" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G237" s="18">
-        <v>750000</v>
+        <v>781242</v>
       </c>
       <c r="H237" s="19"/>
       <c r="I237" s="19"/>
@@ -6420,19 +6420,19 @@
         <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="F238" s="18">
-        <v>30000</v>
+        <v>160000</v>
       </c>
       <c r="G238" s="18">
-        <v>750000</v>
+        <v>4000000</v>
       </c>
       <c r="H238" s="19"/>
       <c r="I238" s="19"/>
@@ -6443,19 +6443,19 @@
         <v>8</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="F239" s="18">
-        <v>30000</v>
+        <v>120000</v>
       </c>
       <c r="G239" s="18">
-        <v>750000</v>
+        <v>3000000</v>
       </c>
       <c r="H239" s="19"/>
       <c r="I239" s="19"/>
@@ -6466,19 +6466,19 @@
         <v>8</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="F240" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G240" s="18">
-        <v>750000</v>
+        <v>781242</v>
       </c>
       <c r="H240" s="19"/>
       <c r="I240" s="19"/>
@@ -6489,19 +6489,19 @@
         <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="F241" s="18">
-        <v>30000</v>
+        <v>48000</v>
       </c>
       <c r="G241" s="18">
-        <v>750000</v>
+        <v>1200000</v>
       </c>
       <c r="H241" s="19"/>
       <c r="I241" s="19"/>
@@ -6512,13 +6512,13 @@
         <v>8</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="F242" s="18">
         <v>30000</v>
@@ -6535,19 +6535,19 @@
         <v>8</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F243" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G243" s="18">
-        <v>750000</v>
+        <v>781242</v>
       </c>
       <c r="H243" s="19"/>
       <c r="I243" s="19"/>
@@ -6558,19 +6558,19 @@
         <v>8</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="F244" s="18">
-        <v>30000</v>
+        <v>160000</v>
       </c>
       <c r="G244" s="18">
-        <v>750000</v>
+        <v>4000000</v>
       </c>
       <c r="H244" s="19"/>
       <c r="I244" s="19"/>
@@ -6581,19 +6581,19 @@
         <v>8</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F245" s="18">
-        <v>30000</v>
+        <v>120000</v>
       </c>
       <c r="G245" s="18">
-        <v>750000</v>
+        <v>3000000</v>
       </c>
       <c r="H245" s="19"/>
       <c r="I245" s="19"/>
@@ -6604,19 +6604,19 @@
         <v>8</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F246" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G246" s="18">
-        <v>750000</v>
+        <v>781242</v>
       </c>
       <c r="H246" s="19"/>
       <c r="I246" s="19"/>
@@ -6627,19 +6627,19 @@
         <v>8</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F247" s="18">
-        <v>30000</v>
+        <v>48000</v>
       </c>
       <c r="G247" s="18">
-        <v>750000</v>
+        <v>1200000</v>
       </c>
       <c r="H247" s="19"/>
       <c r="I247" s="19"/>
@@ -6650,13 +6650,13 @@
         <v>8</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="E248" s="16" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F248" s="18">
         <v>30000</v>
@@ -6673,19 +6673,19 @@
         <v>8</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F249" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G249" s="18">
-        <v>750000</v>
+        <v>781242</v>
       </c>
       <c r="H249" s="19"/>
       <c r="I249" s="19"/>
@@ -6696,19 +6696,19 @@
         <v>8</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F250" s="18">
-        <v>30000</v>
+        <v>160000</v>
       </c>
       <c r="G250" s="18">
-        <v>750000</v>
+        <v>4000000</v>
       </c>
       <c r="H250" s="19"/>
       <c r="I250" s="19"/>
@@ -6719,19 +6719,19 @@
         <v>8</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F251" s="18">
-        <v>30000</v>
+        <v>120000</v>
       </c>
       <c r="G251" s="18">
-        <v>750000</v>
+        <v>3000000</v>
       </c>
       <c r="H251" s="19"/>
       <c r="I251" s="19"/>
@@ -6742,19 +6742,19 @@
         <v>8</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="E252" s="16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F252" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G252" s="18">
-        <v>750000</v>
+        <v>781242</v>
       </c>
       <c r="H252" s="19"/>
       <c r="I252" s="19"/>
@@ -6765,19 +6765,19 @@
         <v>8</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F253" s="18">
-        <v>30000</v>
+        <v>48000</v>
       </c>
       <c r="G253" s="18">
-        <v>750000</v>
+        <v>1200000</v>
       </c>
       <c r="H253" s="19"/>
       <c r="I253" s="19"/>
@@ -6788,13 +6788,13 @@
         <v>8</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F254" s="18">
         <v>30000</v>
@@ -6811,19 +6811,19 @@
         <v>8</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="E255" s="16" t="s">
         <v>84</v>
       </c>
       <c r="F255" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G255" s="18">
-        <v>750000</v>
+        <v>781242</v>
       </c>
       <c r="H255" s="19"/>
       <c r="I255" s="19"/>
@@ -6834,19 +6834,19 @@
         <v>8</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F256" s="18">
-        <v>30000</v>
+        <v>160000</v>
       </c>
       <c r="G256" s="18">
-        <v>750000</v>
+        <v>4000000</v>
       </c>
       <c r="H256" s="19"/>
       <c r="I256" s="19"/>
@@ -6857,19 +6857,19 @@
         <v>8</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F257" s="18">
-        <v>30000</v>
+        <v>120000</v>
       </c>
       <c r="G257" s="18">
-        <v>750000</v>
+        <v>3000000</v>
       </c>
       <c r="H257" s="19"/>
       <c r="I257" s="19"/>
@@ -6880,19 +6880,19 @@
         <v>8</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F258" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G258" s="18">
-        <v>750000</v>
+        <v>781242</v>
       </c>
       <c r="H258" s="19"/>
       <c r="I258" s="19"/>
@@ -6903,19 +6903,19 @@
         <v>8</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F259" s="18">
-        <v>30000</v>
+        <v>48000</v>
       </c>
       <c r="G259" s="18">
-        <v>750000</v>
+        <v>1200000</v>
       </c>
       <c r="H259" s="19"/>
       <c r="I259" s="19"/>
@@ -6926,13 +6926,13 @@
         <v>8</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="D260" s="17" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F260" s="18">
         <v>30000</v>
@@ -6949,19 +6949,19 @@
         <v>8</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="D261" s="17" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="E261" s="16" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F261" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G261" s="18">
-        <v>750000</v>
+        <v>781242</v>
       </c>
       <c r="H261" s="19"/>
       <c r="I261" s="19"/>
@@ -6972,19 +6972,19 @@
         <v>8</v>
       </c>
       <c r="C262" s="16" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F262" s="18">
-        <v>30000</v>
+        <v>160000</v>
       </c>
       <c r="G262" s="18">
-        <v>750000</v>
+        <v>4000000</v>
       </c>
       <c r="H262" s="19"/>
       <c r="I262" s="19"/>
@@ -6995,19 +6995,19 @@
         <v>8</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F263" s="18">
-        <v>30000</v>
+        <v>120000</v>
       </c>
       <c r="G263" s="18">
-        <v>750000</v>
+        <v>3000000</v>
       </c>
       <c r="H263" s="19"/>
       <c r="I263" s="19"/>
@@ -7018,19 +7018,19 @@
         <v>8</v>
       </c>
       <c r="C264" s="16" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F264" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G264" s="18">
-        <v>750000</v>
+        <v>781242</v>
       </c>
       <c r="H264" s="19"/>
       <c r="I264" s="19"/>
@@ -7038,22 +7038,22 @@
     </row>
     <row r="265" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B265" s="15" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="C265" s="16" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="D265" s="17" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F265" s="18">
-        <v>592000</v>
+        <v>48000</v>
       </c>
       <c r="G265" s="18">
-        <v>19000000</v>
+        <v>1200000</v>
       </c>
       <c r="H265" s="19"/>
       <c r="I265" s="19"/>
@@ -7064,19 +7064,19 @@
         <v>8</v>
       </c>
       <c r="C266" s="16" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="E266" s="16" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="F266" s="18">
-        <v>24999</v>
+        <v>30000</v>
       </c>
       <c r="G266" s="18">
-        <v>781242</v>
+        <v>750000</v>
       </c>
       <c r="H266" s="19"/>
       <c r="I266" s="19"/>
@@ -7087,13 +7087,13 @@
         <v>8</v>
       </c>
       <c r="C267" s="16" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="F267" s="18">
         <v>31249</v>
@@ -7110,19 +7110,19 @@
         <v>8</v>
       </c>
       <c r="C268" s="16" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="E268" s="16" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="F268" s="18">
-        <v>31249</v>
+        <v>160000</v>
       </c>
       <c r="G268" s="18">
-        <v>781242</v>
+        <v>4000000</v>
       </c>
       <c r="H268" s="19"/>
       <c r="I268" s="19"/>
@@ -7133,19 +7133,19 @@
         <v>8</v>
       </c>
       <c r="C269" s="16" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="E269" s="16" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="F269" s="18">
-        <v>31249</v>
+        <v>120000</v>
       </c>
       <c r="G269" s="18">
-        <v>781242</v>
+        <v>3000000</v>
       </c>
       <c r="H269" s="19"/>
       <c r="I269" s="19"/>
@@ -7156,13 +7156,13 @@
         <v>8</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="D270" s="17" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="F270" s="18">
         <v>31249</v>
@@ -7179,19 +7179,19 @@
         <v>8</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D271" s="17" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="E271" s="16" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="F271" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G271" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H271" s="19"/>
       <c r="I271" s="19"/>
@@ -7202,19 +7202,19 @@
         <v>8</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="D272" s="17" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="E272" s="16" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="F272" s="18">
-        <v>31249</v>
+        <v>30000</v>
       </c>
       <c r="G272" s="18">
-        <v>781242</v>
+        <v>750000</v>
       </c>
       <c r="H272" s="19"/>
       <c r="I272" s="19"/>
@@ -7225,13 +7225,13 @@
         <v>8</v>
       </c>
       <c r="C273" s="16" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="D273" s="17" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="E273" s="16" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="F273" s="18">
         <v>31249</v>
@@ -7248,19 +7248,19 @@
         <v>8</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="D274" s="17" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="E274" s="16" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="F274" s="18">
-        <v>31249</v>
+        <v>160000</v>
       </c>
       <c r="G274" s="18">
-        <v>781242</v>
+        <v>4000000</v>
       </c>
       <c r="H274" s="19"/>
       <c r="I274" s="19"/>
@@ -7271,19 +7271,19 @@
         <v>8</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D275" s="17" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="E275" s="16" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="F275" s="18">
-        <v>31249</v>
+        <v>120000</v>
       </c>
       <c r="G275" s="18">
-        <v>781242</v>
+        <v>3000000</v>
       </c>
       <c r="H275" s="19"/>
       <c r="I275" s="19"/>
@@ -7294,13 +7294,13 @@
         <v>8</v>
       </c>
       <c r="C276" s="16" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="D276" s="17" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="E276" s="16" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="F276" s="18">
         <v>31249</v>
@@ -7317,19 +7317,19 @@
         <v>8</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D277" s="17" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="E277" s="16" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="F277" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G277" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H277" s="19"/>
       <c r="I277" s="19"/>
@@ -7340,19 +7340,19 @@
         <v>8</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="E278" s="16" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="F278" s="18">
-        <v>31249</v>
+        <v>30000</v>
       </c>
       <c r="G278" s="18">
-        <v>781242</v>
+        <v>750000</v>
       </c>
       <c r="H278" s="19"/>
       <c r="I278" s="19"/>
@@ -7363,13 +7363,13 @@
         <v>8</v>
       </c>
       <c r="C279" s="16" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="D279" s="17" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="E279" s="16" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="F279" s="18">
         <v>31249</v>
@@ -7386,19 +7386,19 @@
         <v>8</v>
       </c>
       <c r="C280" s="16" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="E280" s="16" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="F280" s="18">
-        <v>31249</v>
+        <v>160000</v>
       </c>
       <c r="G280" s="18">
-        <v>781242</v>
+        <v>4000000</v>
       </c>
       <c r="H280" s="19"/>
       <c r="I280" s="19"/>
@@ -7409,19 +7409,19 @@
         <v>8</v>
       </c>
       <c r="C281" s="16" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D281" s="17" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="E281" s="16" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="F281" s="18">
-        <v>31249</v>
+        <v>120000</v>
       </c>
       <c r="G281" s="18">
-        <v>781242</v>
+        <v>3000000</v>
       </c>
       <c r="H281" s="19"/>
       <c r="I281" s="19"/>
@@ -7432,13 +7432,13 @@
         <v>8</v>
       </c>
       <c r="C282" s="16" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="D282" s="17" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="E282" s="16" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="F282" s="18">
         <v>31249</v>
@@ -7455,19 +7455,19 @@
         <v>8</v>
       </c>
       <c r="C283" s="16" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D283" s="17" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="E283" s="16" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="F283" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G283" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H283" s="19"/>
       <c r="I283" s="19"/>
@@ -7478,19 +7478,19 @@
         <v>8</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="F284" s="18">
-        <v>31249</v>
+        <v>30000</v>
       </c>
       <c r="G284" s="18">
-        <v>781242</v>
+        <v>750000</v>
       </c>
       <c r="H284" s="19"/>
       <c r="I284" s="19"/>
@@ -7501,13 +7501,13 @@
         <v>8</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="D285" s="17" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="E285" s="16" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="F285" s="18">
         <v>31249</v>
@@ -7524,19 +7524,19 @@
         <v>8</v>
       </c>
       <c r="C286" s="16" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="E286" s="16" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="F286" s="18">
-        <v>31249</v>
+        <v>160000</v>
       </c>
       <c r="G286" s="18">
-        <v>781242</v>
+        <v>4000000</v>
       </c>
       <c r="H286" s="19"/>
       <c r="I286" s="19"/>
@@ -7547,19 +7547,19 @@
         <v>8</v>
       </c>
       <c r="C287" s="16" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="E287" s="16" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="F287" s="18">
-        <v>31249</v>
+        <v>120000</v>
       </c>
       <c r="G287" s="18">
-        <v>781242</v>
+        <v>3000000</v>
       </c>
       <c r="H287" s="19"/>
       <c r="I287" s="19"/>
@@ -7570,13 +7570,13 @@
         <v>8</v>
       </c>
       <c r="C288" s="16" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="D288" s="17" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="E288" s="16" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="F288" s="18">
         <v>31249</v>
@@ -7593,19 +7593,19 @@
         <v>8</v>
       </c>
       <c r="C289" s="16" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D289" s="17" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="E289" s="16" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="F289" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G289" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H289" s="19"/>
       <c r="I289" s="19"/>
@@ -7616,19 +7616,19 @@
         <v>8</v>
       </c>
       <c r="C290" s="16" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="D290" s="17" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="E290" s="16" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="F290" s="18">
-        <v>31249</v>
+        <v>30000</v>
       </c>
       <c r="G290" s="18">
-        <v>781242</v>
+        <v>750000</v>
       </c>
       <c r="H290" s="19"/>
       <c r="I290" s="19"/>
@@ -7639,13 +7639,13 @@
         <v>8</v>
       </c>
       <c r="C291" s="16" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="D291" s="17" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="E291" s="16" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="F291" s="18">
         <v>31249</v>
@@ -7662,19 +7662,19 @@
         <v>8</v>
       </c>
       <c r="C292" s="16" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D292" s="17" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="E292" s="16" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="F292" s="18">
-        <v>31249</v>
+        <v>120000</v>
       </c>
       <c r="G292" s="18">
-        <v>781242</v>
+        <v>3000000</v>
       </c>
       <c r="H292" s="19"/>
       <c r="I292" s="19"/>
@@ -7685,13 +7685,13 @@
         <v>8</v>
       </c>
       <c r="C293" s="16" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="D293" s="17" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="F293" s="18">
         <v>31249</v>
@@ -7708,19 +7708,19 @@
         <v>8</v>
       </c>
       <c r="C294" s="16" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D294" s="17" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="F294" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G294" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H294" s="19"/>
       <c r="I294" s="19"/>
@@ -7731,19 +7731,19 @@
         <v>8</v>
       </c>
       <c r="C295" s="16" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="D295" s="17" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="E295" s="16" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="F295" s="18">
-        <v>31249</v>
+        <v>30000</v>
       </c>
       <c r="G295" s="18">
-        <v>781242</v>
+        <v>750000</v>
       </c>
       <c r="H295" s="19"/>
       <c r="I295" s="19"/>
@@ -7754,13 +7754,13 @@
         <v>8</v>
       </c>
       <c r="C296" s="16" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="D296" s="17" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="E296" s="16" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="F296" s="18">
         <v>31249</v>
@@ -7777,19 +7777,19 @@
         <v>8</v>
       </c>
       <c r="C297" s="16" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D297" s="17" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="E297" s="16" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="F297" s="18">
-        <v>31249</v>
+        <v>120000</v>
       </c>
       <c r="G297" s="18">
-        <v>781242</v>
+        <v>3000000</v>
       </c>
       <c r="H297" s="19"/>
       <c r="I297" s="19"/>
@@ -7800,13 +7800,13 @@
         <v>8</v>
       </c>
       <c r="C298" s="16" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="D298" s="17" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="E298" s="16" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="F298" s="18">
         <v>31249</v>
@@ -7823,19 +7823,19 @@
         <v>8</v>
       </c>
       <c r="C299" s="16" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D299" s="17" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="E299" s="16" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="F299" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G299" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H299" s="19"/>
       <c r="I299" s="19"/>
@@ -7846,19 +7846,19 @@
         <v>8</v>
       </c>
       <c r="C300" s="16" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="D300" s="17" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="E300" s="16" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="F300" s="18">
-        <v>31249</v>
+        <v>30000</v>
       </c>
       <c r="G300" s="18">
-        <v>781242</v>
+        <v>750000</v>
       </c>
       <c r="H300" s="19"/>
       <c r="I300" s="19"/>
@@ -7869,13 +7869,13 @@
         <v>8</v>
       </c>
       <c r="C301" s="16" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="D301" s="17" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="E301" s="16" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="F301" s="18">
         <v>31249</v>
@@ -7892,19 +7892,19 @@
         <v>8</v>
       </c>
       <c r="C302" s="16" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D302" s="17" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="E302" s="16" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="F302" s="18">
-        <v>31249</v>
+        <v>120000</v>
       </c>
       <c r="G302" s="18">
-        <v>781242</v>
+        <v>3000000</v>
       </c>
       <c r="H302" s="19"/>
       <c r="I302" s="19"/>
@@ -7915,13 +7915,13 @@
         <v>8</v>
       </c>
       <c r="C303" s="16" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="D303" s="17" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="E303" s="16" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F303" s="18">
         <v>31249</v>
@@ -7938,19 +7938,19 @@
         <v>8</v>
       </c>
       <c r="C304" s="16" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="E304" s="16" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="F304" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G304" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H304" s="19"/>
       <c r="I304" s="19"/>
@@ -7961,19 +7961,19 @@
         <v>8</v>
       </c>
       <c r="C305" s="16" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="D305" s="17" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="E305" s="16" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="F305" s="18">
-        <v>31249</v>
+        <v>30000</v>
       </c>
       <c r="G305" s="18">
-        <v>781242</v>
+        <v>750000</v>
       </c>
       <c r="H305" s="19"/>
       <c r="I305" s="19"/>
@@ -7984,13 +7984,13 @@
         <v>8</v>
       </c>
       <c r="C306" s="16" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="D306" s="17" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="E306" s="16" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="F306" s="18">
         <v>31249</v>
@@ -8007,19 +8007,19 @@
         <v>8</v>
       </c>
       <c r="C307" s="16" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D307" s="17" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="E307" s="16" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="F307" s="18">
-        <v>31249</v>
+        <v>120000</v>
       </c>
       <c r="G307" s="18">
-        <v>781242</v>
+        <v>3000000</v>
       </c>
       <c r="H307" s="19"/>
       <c r="I307" s="19"/>
@@ -8030,13 +8030,13 @@
         <v>8</v>
       </c>
       <c r="C308" s="16" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="E308" s="16" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="F308" s="18">
         <v>31249</v>
@@ -8053,19 +8053,19 @@
         <v>8</v>
       </c>
       <c r="C309" s="16" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D309" s="17" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="E309" s="16" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="F309" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G309" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H309" s="19"/>
       <c r="I309" s="19"/>
@@ -8076,19 +8076,19 @@
         <v>8</v>
       </c>
       <c r="C310" s="16" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="D310" s="17" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="E310" s="16" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="F310" s="18">
-        <v>31249</v>
+        <v>30000</v>
       </c>
       <c r="G310" s="18">
-        <v>781242</v>
+        <v>750000</v>
       </c>
       <c r="H310" s="19"/>
       <c r="I310" s="19"/>
@@ -8099,13 +8099,13 @@
         <v>8</v>
       </c>
       <c r="C311" s="16" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="D311" s="17" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="E311" s="16" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="F311" s="18">
         <v>31249</v>
@@ -8122,19 +8122,19 @@
         <v>8</v>
       </c>
       <c r="C312" s="16" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D312" s="17" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="E312" s="16" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="F312" s="18">
-        <v>31249</v>
+        <v>120000</v>
       </c>
       <c r="G312" s="18">
-        <v>781242</v>
+        <v>3000000</v>
       </c>
       <c r="H312" s="19"/>
       <c r="I312" s="19"/>
@@ -8145,13 +8145,13 @@
         <v>8</v>
       </c>
       <c r="C313" s="16" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="D313" s="17" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="E313" s="16" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="F313" s="18">
         <v>31249</v>
@@ -8168,19 +8168,19 @@
         <v>8</v>
       </c>
       <c r="C314" s="16" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D314" s="17" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="E314" s="16" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="F314" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G314" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H314" s="19"/>
       <c r="I314" s="19"/>
@@ -8191,19 +8191,19 @@
         <v>8</v>
       </c>
       <c r="C315" s="16" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="D315" s="17" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="E315" s="16" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="F315" s="18">
-        <v>31249</v>
+        <v>30000</v>
       </c>
       <c r="G315" s="18">
-        <v>781242</v>
+        <v>750000</v>
       </c>
       <c r="H315" s="19"/>
       <c r="I315" s="19"/>
@@ -8214,13 +8214,13 @@
         <v>8</v>
       </c>
       <c r="C316" s="16" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="D316" s="17" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="E316" s="16" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="F316" s="18">
         <v>31249</v>
@@ -8237,19 +8237,19 @@
         <v>8</v>
       </c>
       <c r="C317" s="16" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D317" s="17" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="E317" s="16" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="F317" s="18">
-        <v>31249</v>
+        <v>120000</v>
       </c>
       <c r="G317" s="18">
-        <v>781242</v>
+        <v>3000000</v>
       </c>
       <c r="H317" s="19"/>
       <c r="I317" s="19"/>
@@ -8260,13 +8260,13 @@
         <v>8</v>
       </c>
       <c r="C318" s="16" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="D318" s="17" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="E318" s="16" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="F318" s="18">
         <v>31249</v>
@@ -8283,19 +8283,19 @@
         <v>8</v>
       </c>
       <c r="C319" s="16" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D319" s="17" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="E319" s="16" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="F319" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G319" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H319" s="19"/>
       <c r="I319" s="19"/>
@@ -8306,19 +8306,19 @@
         <v>8</v>
       </c>
       <c r="C320" s="16" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="D320" s="17" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="E320" s="16" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="F320" s="18">
-        <v>31249</v>
+        <v>30000</v>
       </c>
       <c r="G320" s="18">
-        <v>781242</v>
+        <v>750000</v>
       </c>
       <c r="H320" s="19"/>
       <c r="I320" s="19"/>
@@ -8329,13 +8329,13 @@
         <v>8</v>
       </c>
       <c r="C321" s="16" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="D321" s="17" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="E321" s="16" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="F321" s="18">
         <v>31249</v>
@@ -8352,19 +8352,19 @@
         <v>8</v>
       </c>
       <c r="C322" s="16" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D322" s="17" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="E322" s="16" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="F322" s="18">
-        <v>31249</v>
+        <v>120000</v>
       </c>
       <c r="G322" s="18">
-        <v>781242</v>
+        <v>3000000</v>
       </c>
       <c r="H322" s="19"/>
       <c r="I322" s="19"/>
@@ -8375,16 +8375,16 @@
         <v>8</v>
       </c>
       <c r="C323" s="16" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="D323" s="17" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="E323" s="16" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="F323" s="18">
-        <v>27839</v>
+        <v>31249</v>
       </c>
       <c r="G323" s="18">
         <v>781242</v>
@@ -8398,19 +8398,19 @@
         <v>8</v>
       </c>
       <c r="C324" s="16" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D324" s="17" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="E324" s="16" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="F324" s="18">
-        <v>27839</v>
+        <v>48000</v>
       </c>
       <c r="G324" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H324" s="19"/>
       <c r="I324" s="19"/>
@@ -8421,19 +8421,19 @@
         <v>8</v>
       </c>
       <c r="C325" s="16" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="D325" s="17" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="E325" s="16" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="F325" s="18">
-        <v>27839</v>
+        <v>30000</v>
       </c>
       <c r="G325" s="18">
-        <v>781242</v>
+        <v>750000</v>
       </c>
       <c r="H325" s="19"/>
       <c r="I325" s="19"/>
@@ -8444,16 +8444,16 @@
         <v>8</v>
       </c>
       <c r="C326" s="16" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="D326" s="17" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="E326" s="16" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="F326" s="18">
-        <v>27839</v>
+        <v>31249</v>
       </c>
       <c r="G326" s="18">
         <v>781242</v>
@@ -8467,19 +8467,19 @@
         <v>8</v>
       </c>
       <c r="C327" s="16" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D327" s="17" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="E327" s="16" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="F327" s="18">
-        <v>27839</v>
+        <v>120000</v>
       </c>
       <c r="G327" s="18">
-        <v>781242</v>
+        <v>3000000</v>
       </c>
       <c r="H327" s="19"/>
       <c r="I327" s="19"/>
@@ -8490,16 +8490,16 @@
         <v>8</v>
       </c>
       <c r="C328" s="16" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="D328" s="17" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="E328" s="16" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="F328" s="18">
-        <v>27839</v>
+        <v>31249</v>
       </c>
       <c r="G328" s="18">
         <v>781242</v>
@@ -8513,19 +8513,19 @@
         <v>8</v>
       </c>
       <c r="C329" s="16" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D329" s="17" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="E329" s="16" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F329" s="18">
-        <v>27839</v>
+        <v>48000</v>
       </c>
       <c r="G329" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H329" s="19"/>
       <c r="I329" s="19"/>
@@ -8536,19 +8536,19 @@
         <v>8</v>
       </c>
       <c r="C330" s="16" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="D330" s="17" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="E330" s="16" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="F330" s="18">
-        <v>27839</v>
+        <v>30000</v>
       </c>
       <c r="G330" s="18">
-        <v>781242</v>
+        <v>750000</v>
       </c>
       <c r="H330" s="19"/>
       <c r="I330" s="19"/>
@@ -8559,16 +8559,16 @@
         <v>8</v>
       </c>
       <c r="C331" s="16" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="D331" s="17" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="E331" s="16" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="F331" s="18">
-        <v>27839</v>
+        <v>31249</v>
       </c>
       <c r="G331" s="18">
         <v>781242</v>
@@ -8582,19 +8582,19 @@
         <v>8</v>
       </c>
       <c r="C332" s="16" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D332" s="17" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="E332" s="16" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="F332" s="18">
-        <v>27839</v>
+        <v>120000</v>
       </c>
       <c r="G332" s="18">
-        <v>781242</v>
+        <v>3000000</v>
       </c>
       <c r="H332" s="19"/>
       <c r="I332" s="19"/>
@@ -8605,16 +8605,16 @@
         <v>8</v>
       </c>
       <c r="C333" s="16" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="D333" s="17" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="E333" s="16" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="F333" s="18">
-        <v>27839</v>
+        <v>31249</v>
       </c>
       <c r="G333" s="18">
         <v>781242</v>
@@ -8628,19 +8628,19 @@
         <v>8</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D334" s="17" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="E334" s="16" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="F334" s="18">
-        <v>27839</v>
+        <v>48000</v>
       </c>
       <c r="G334" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H334" s="19"/>
       <c r="I334" s="19"/>
@@ -8651,19 +8651,19 @@
         <v>8</v>
       </c>
       <c r="C335" s="16" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="D335" s="17" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="E335" s="16" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="F335" s="18">
-        <v>27839</v>
+        <v>30000</v>
       </c>
       <c r="G335" s="18">
-        <v>781242</v>
+        <v>750000</v>
       </c>
       <c r="H335" s="19"/>
       <c r="I335" s="19"/>
@@ -8674,16 +8674,16 @@
         <v>8</v>
       </c>
       <c r="C336" s="16" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="D336" s="17" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="E336" s="16" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="F336" s="18">
-        <v>27839</v>
+        <v>31249</v>
       </c>
       <c r="G336" s="18">
         <v>781242</v>
@@ -8697,19 +8697,19 @@
         <v>8</v>
       </c>
       <c r="C337" s="16" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D337" s="17" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="E337" s="16" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="F337" s="18">
-        <v>27839</v>
+        <v>120000</v>
       </c>
       <c r="G337" s="18">
-        <v>781242</v>
+        <v>3000000</v>
       </c>
       <c r="H337" s="19"/>
       <c r="I337" s="19"/>
@@ -8720,16 +8720,16 @@
         <v>8</v>
       </c>
       <c r="C338" s="16" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="D338" s="17" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="E338" s="16" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="F338" s="18">
-        <v>27839</v>
+        <v>31249</v>
       </c>
       <c r="G338" s="18">
         <v>781242</v>
@@ -8743,19 +8743,19 @@
         <v>8</v>
       </c>
       <c r="C339" s="16" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D339" s="17" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="E339" s="16" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="F339" s="18">
-        <v>27839</v>
+        <v>48000</v>
       </c>
       <c r="G339" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H339" s="19"/>
       <c r="I339" s="19"/>
@@ -8766,19 +8766,19 @@
         <v>8</v>
       </c>
       <c r="C340" s="16" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="D340" s="17" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="E340" s="16" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="F340" s="18">
-        <v>27839</v>
+        <v>30000</v>
       </c>
       <c r="G340" s="18">
-        <v>781242</v>
+        <v>750000</v>
       </c>
       <c r="H340" s="19"/>
       <c r="I340" s="19"/>
@@ -8789,16 +8789,16 @@
         <v>8</v>
       </c>
       <c r="C341" s="16" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="D341" s="17" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="E341" s="16" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="F341" s="18">
-        <v>27839</v>
+        <v>31249</v>
       </c>
       <c r="G341" s="18">
         <v>781242</v>
@@ -8812,19 +8812,19 @@
         <v>8</v>
       </c>
       <c r="C342" s="16" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D342" s="17" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="E342" s="16" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="F342" s="18">
-        <v>27839</v>
+        <v>120000</v>
       </c>
       <c r="G342" s="18">
-        <v>781242</v>
+        <v>3000000</v>
       </c>
       <c r="H342" s="19"/>
       <c r="I342" s="19"/>
@@ -8835,16 +8835,16 @@
         <v>8</v>
       </c>
       <c r="C343" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D343" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E343" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D343" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E343" s="16" t="s">
-        <v>88</v>
-      </c>
       <c r="F343" s="18">
-        <v>27839</v>
+        <v>31249</v>
       </c>
       <c r="G343" s="18">
         <v>781242</v>
@@ -8858,19 +8858,19 @@
         <v>8</v>
       </c>
       <c r="C344" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D344" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E344" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D344" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E344" s="16" t="s">
-        <v>89</v>
-      </c>
       <c r="F344" s="18">
-        <v>27839</v>
+        <v>48000</v>
       </c>
       <c r="G344" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H344" s="19"/>
       <c r="I344" s="19"/>
@@ -8881,19 +8881,19 @@
         <v>8</v>
       </c>
       <c r="C345" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D345" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E345" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D345" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E345" s="16" t="s">
-        <v>90</v>
-      </c>
       <c r="F345" s="18">
-        <v>27839</v>
+        <v>30000</v>
       </c>
       <c r="G345" s="18">
-        <v>781242</v>
+        <v>750000</v>
       </c>
       <c r="H345" s="19"/>
       <c r="I345" s="19"/>
@@ -8904,16 +8904,16 @@
         <v>8</v>
       </c>
       <c r="C346" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D346" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E346" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D346" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E346" s="16" t="s">
-        <v>91</v>
-      </c>
       <c r="F346" s="18">
-        <v>27839</v>
+        <v>31249</v>
       </c>
       <c r="G346" s="18">
         <v>781242</v>
@@ -8927,19 +8927,19 @@
         <v>8</v>
       </c>
       <c r="C347" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D347" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E347" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D347" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E347" s="16" t="s">
-        <v>92</v>
-      </c>
       <c r="F347" s="18">
-        <v>27839</v>
+        <v>120000</v>
       </c>
       <c r="G347" s="18">
-        <v>781242</v>
+        <v>3000000</v>
       </c>
       <c r="H347" s="19"/>
       <c r="I347" s="19"/>
@@ -8950,16 +8950,16 @@
         <v>8</v>
       </c>
       <c r="C348" s="16" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="D348" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E348" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="E348" s="16" t="s">
-        <v>93</v>
-      </c>
       <c r="F348" s="18">
-        <v>27839</v>
+        <v>31249</v>
       </c>
       <c r="G348" s="18">
         <v>781242</v>
@@ -8973,19 +8973,19 @@
         <v>8</v>
       </c>
       <c r="C349" s="16" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="D349" s="17" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="E349" s="16" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="F349" s="18">
-        <v>60000</v>
+        <v>48000</v>
       </c>
       <c r="G349" s="18">
-        <v>1500000</v>
+        <v>1200000</v>
       </c>
       <c r="H349" s="19"/>
       <c r="I349" s="19"/>
@@ -8996,19 +8996,19 @@
         <v>8</v>
       </c>
       <c r="C350" s="16" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="D350" s="17" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="E350" s="16" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="F350" s="18">
-        <v>37567</v>
+        <v>30000</v>
       </c>
       <c r="G350" s="18">
-        <v>939182</v>
+        <v>750000</v>
       </c>
       <c r="H350" s="19"/>
       <c r="I350" s="19"/>
@@ -9019,19 +9019,19 @@
         <v>8</v>
       </c>
       <c r="C351" s="16" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="D351" s="17" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="E351" s="16" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="F351" s="18">
-        <v>20036</v>
+        <v>31249</v>
       </c>
       <c r="G351" s="18">
-        <v>939182</v>
+        <v>781242</v>
       </c>
       <c r="H351" s="19"/>
       <c r="I351" s="19"/>
@@ -9042,19 +9042,19 @@
         <v>8</v>
       </c>
       <c r="C352" s="16" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="D352" s="17" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="E352" s="16" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="F352" s="18">
-        <v>160000</v>
+        <v>120000</v>
       </c>
       <c r="G352" s="18">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
       <c r="H352" s="19"/>
       <c r="I352" s="19"/>
@@ -9065,19 +9065,19 @@
         <v>8</v>
       </c>
       <c r="C353" s="16" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="D353" s="17" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="E353" s="16" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="F353" s="18">
-        <v>160000</v>
+        <v>31249</v>
       </c>
       <c r="G353" s="18">
-        <v>4000000</v>
+        <v>781242</v>
       </c>
       <c r="H353" s="19"/>
       <c r="I353" s="19"/>
@@ -9088,19 +9088,19 @@
         <v>8</v>
       </c>
       <c r="C354" s="16" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="D354" s="17" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="E354" s="16" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="F354" s="18">
-        <v>160000</v>
+        <v>48000</v>
       </c>
       <c r="G354" s="18">
-        <v>4000000</v>
+        <v>1200000</v>
       </c>
       <c r="H354" s="19"/>
       <c r="I354" s="19"/>
@@ -9111,19 +9111,19 @@
         <v>8</v>
       </c>
       <c r="C355" s="16" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="D355" s="17" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="E355" s="16" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="F355" s="18">
-        <v>160000</v>
+        <v>30000</v>
       </c>
       <c r="G355" s="18">
-        <v>4000000</v>
+        <v>750000</v>
       </c>
       <c r="H355" s="19"/>
       <c r="I355" s="19"/>
@@ -9134,19 +9134,19 @@
         <v>8</v>
       </c>
       <c r="C356" s="16" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="D356" s="17" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="E356" s="16" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="F356" s="18">
-        <v>160000</v>
+        <v>31249</v>
       </c>
       <c r="G356" s="18">
-        <v>4000000</v>
+        <v>781242</v>
       </c>
       <c r="H356" s="19"/>
       <c r="I356" s="19"/>
@@ -9157,19 +9157,19 @@
         <v>8</v>
       </c>
       <c r="C357" s="16" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="D357" s="17" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="E357" s="16" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="F357" s="18">
-        <v>160000</v>
+        <v>120000</v>
       </c>
       <c r="G357" s="18">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
       <c r="H357" s="19"/>
       <c r="I357" s="19"/>
@@ -9180,19 +9180,19 @@
         <v>8</v>
       </c>
       <c r="C358" s="16" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="D358" s="17" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="E358" s="16" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="F358" s="18">
-        <v>160000</v>
+        <v>31249</v>
       </c>
       <c r="G358" s="18">
-        <v>4000000</v>
+        <v>781242</v>
       </c>
       <c r="H358" s="19"/>
       <c r="I358" s="19"/>
@@ -9203,19 +9203,19 @@
         <v>8</v>
       </c>
       <c r="C359" s="16" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="D359" s="17" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="E359" s="16" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="F359" s="18">
-        <v>160000</v>
+        <v>48000</v>
       </c>
       <c r="G359" s="18">
-        <v>4000000</v>
+        <v>1200000</v>
       </c>
       <c r="H359" s="19"/>
       <c r="I359" s="19"/>
@@ -9226,19 +9226,19 @@
         <v>8</v>
       </c>
       <c r="C360" s="16" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="D360" s="17" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="E360" s="16" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="F360" s="18">
-        <v>160000</v>
+        <v>30000</v>
       </c>
       <c r="G360" s="18">
-        <v>4000000</v>
+        <v>750000</v>
       </c>
       <c r="H360" s="19"/>
       <c r="I360" s="19"/>
@@ -9249,19 +9249,19 @@
         <v>8</v>
       </c>
       <c r="C361" s="16" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="D361" s="17" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="E361" s="16" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="F361" s="18">
-        <v>160000</v>
+        <v>31249</v>
       </c>
       <c r="G361" s="18">
-        <v>4000000</v>
+        <v>781242</v>
       </c>
       <c r="H361" s="19"/>
       <c r="I361" s="19"/>
@@ -9272,19 +9272,19 @@
         <v>8</v>
       </c>
       <c r="C362" s="16" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="D362" s="17" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="E362" s="16" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="F362" s="18">
-        <v>160000</v>
+        <v>120000</v>
       </c>
       <c r="G362" s="18">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
       <c r="H362" s="19"/>
       <c r="I362" s="19"/>
@@ -9295,19 +9295,19 @@
         <v>8</v>
       </c>
       <c r="C363" s="16" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="D363" s="17" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="E363" s="16" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="F363" s="18">
-        <v>160000</v>
+        <v>31249</v>
       </c>
       <c r="G363" s="18">
-        <v>4000000</v>
+        <v>781242</v>
       </c>
       <c r="H363" s="19"/>
       <c r="I363" s="19"/>
@@ -9318,19 +9318,19 @@
         <v>8</v>
       </c>
       <c r="C364" s="16" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="D364" s="17" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="E364" s="16" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="F364" s="18">
-        <v>160000</v>
+        <v>48000</v>
       </c>
       <c r="G364" s="18">
-        <v>4000000</v>
+        <v>1200000</v>
       </c>
       <c r="H364" s="19"/>
       <c r="I364" s="19"/>
@@ -9341,19 +9341,19 @@
         <v>8</v>
       </c>
       <c r="C365" s="16" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="D365" s="17" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="E365" s="16" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="F365" s="18">
-        <v>160000</v>
+        <v>30000</v>
       </c>
       <c r="G365" s="18">
-        <v>4000000</v>
+        <v>750000</v>
       </c>
       <c r="H365" s="19"/>
       <c r="I365" s="19"/>
@@ -9364,19 +9364,19 @@
         <v>8</v>
       </c>
       <c r="C366" s="16" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="D366" s="17" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="E366" s="16" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="F366" s="18">
-        <v>160000</v>
+        <v>31249</v>
       </c>
       <c r="G366" s="18">
-        <v>4000000</v>
+        <v>781242</v>
       </c>
       <c r="H366" s="19"/>
       <c r="I366" s="19"/>
@@ -9387,19 +9387,19 @@
         <v>8</v>
       </c>
       <c r="C367" s="16" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="D367" s="17" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="E367" s="16" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="F367" s="18">
-        <v>160000</v>
+        <v>120000</v>
       </c>
       <c r="G367" s="18">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
       <c r="H367" s="19"/>
       <c r="I367" s="19"/>
@@ -9410,19 +9410,19 @@
         <v>8</v>
       </c>
       <c r="C368" s="16" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="D368" s="17" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="E368" s="16" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="F368" s="18">
-        <v>160000</v>
+        <v>31249</v>
       </c>
       <c r="G368" s="18">
-        <v>4000000</v>
+        <v>781242</v>
       </c>
       <c r="H368" s="19"/>
       <c r="I368" s="19"/>
@@ -9433,19 +9433,19 @@
         <v>8</v>
       </c>
       <c r="C369" s="16" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="D369" s="17" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="E369" s="16" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="F369" s="18">
-        <v>160000</v>
+        <v>48000</v>
       </c>
       <c r="G369" s="18">
-        <v>4000000</v>
+        <v>1200000</v>
       </c>
       <c r="H369" s="19"/>
       <c r="I369" s="19"/>
@@ -9456,19 +9456,19 @@
         <v>8</v>
       </c>
       <c r="C370" s="16" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="D370" s="17" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="E370" s="16" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="F370" s="18">
-        <v>160000</v>
+        <v>30000</v>
       </c>
       <c r="G370" s="18">
-        <v>4000000</v>
+        <v>750000</v>
       </c>
       <c r="H370" s="19"/>
       <c r="I370" s="19"/>
@@ -9479,19 +9479,19 @@
         <v>8</v>
       </c>
       <c r="C371" s="16" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="D371" s="17" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="E371" s="16" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="F371" s="18">
-        <v>160000</v>
+        <v>31249</v>
       </c>
       <c r="G371" s="18">
-        <v>4000000</v>
+        <v>781242</v>
       </c>
       <c r="H371" s="19"/>
       <c r="I371" s="19"/>
@@ -9502,19 +9502,19 @@
         <v>8</v>
       </c>
       <c r="C372" s="16" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="D372" s="17" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="E372" s="16" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="F372" s="18">
-        <v>160000</v>
+        <v>120000</v>
       </c>
       <c r="G372" s="18">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
       <c r="H372" s="19"/>
       <c r="I372" s="19"/>
@@ -9525,19 +9525,19 @@
         <v>8</v>
       </c>
       <c r="C373" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D373" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E373" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="D373" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="E373" s="16" t="s">
-        <v>57</v>
-      </c>
       <c r="F373" s="18">
-        <v>160000</v>
+        <v>31249</v>
       </c>
       <c r="G373" s="18">
-        <v>4000000</v>
+        <v>781242</v>
       </c>
       <c r="H373" s="19"/>
       <c r="I373" s="19"/>
@@ -9548,19 +9548,19 @@
         <v>8</v>
       </c>
       <c r="C374" s="16" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="D374" s="17" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="E374" s="16" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="F374" s="18">
-        <v>96000</v>
+        <v>48000</v>
       </c>
       <c r="G374" s="18">
-        <v>3000000</v>
+        <v>1200000</v>
       </c>
       <c r="H374" s="19"/>
       <c r="I374" s="19"/>
@@ -9571,19 +9571,19 @@
         <v>8</v>
       </c>
       <c r="C375" s="16" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D375" s="17" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="E375" s="16" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="F375" s="18">
-        <v>120000</v>
+        <v>30000</v>
       </c>
       <c r="G375" s="18">
-        <v>3000000</v>
+        <v>750000</v>
       </c>
       <c r="H375" s="19"/>
       <c r="I375" s="19"/>
@@ -9594,19 +9594,19 @@
         <v>8</v>
       </c>
       <c r="C376" s="16" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="D376" s="17" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="E376" s="16" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="F376" s="18">
-        <v>120000</v>
+        <v>31249</v>
       </c>
       <c r="G376" s="18">
-        <v>3000000</v>
+        <v>781242</v>
       </c>
       <c r="H376" s="19"/>
       <c r="I376" s="19"/>
@@ -9617,13 +9617,13 @@
         <v>8</v>
       </c>
       <c r="C377" s="16" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="D377" s="17" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="E377" s="16" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="F377" s="18">
         <v>120000</v>
@@ -9640,19 +9640,19 @@
         <v>8</v>
       </c>
       <c r="C378" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D378" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E378" s="16" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="F378" s="18">
-        <v>120000</v>
+        <v>31249</v>
       </c>
       <c r="G378" s="18">
-        <v>3000000</v>
+        <v>781242</v>
       </c>
       <c r="H378" s="19"/>
       <c r="I378" s="19"/>
@@ -9663,19 +9663,19 @@
         <v>8</v>
       </c>
       <c r="C379" s="16" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="D379" s="17" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="E379" s="16" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="F379" s="18">
-        <v>120000</v>
+        <v>48000</v>
       </c>
       <c r="G379" s="18">
-        <v>3000000</v>
+        <v>1200000</v>
       </c>
       <c r="H379" s="19"/>
       <c r="I379" s="19"/>
@@ -9686,19 +9686,19 @@
         <v>8</v>
       </c>
       <c r="C380" s="16" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D380" s="17" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="E380" s="16" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="F380" s="18">
-        <v>120000</v>
+        <v>30000</v>
       </c>
       <c r="G380" s="18">
-        <v>3000000</v>
+        <v>750000</v>
       </c>
       <c r="H380" s="19"/>
       <c r="I380" s="19"/>
@@ -9709,19 +9709,19 @@
         <v>8</v>
       </c>
       <c r="C381" s="16" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="D381" s="17" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="E381" s="16" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="F381" s="18">
-        <v>120000</v>
+        <v>31249</v>
       </c>
       <c r="G381" s="18">
-        <v>3000000</v>
+        <v>781242</v>
       </c>
       <c r="H381" s="19"/>
       <c r="I381" s="19"/>
@@ -9732,13 +9732,13 @@
         <v>8</v>
       </c>
       <c r="C382" s="16" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="D382" s="17" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="E382" s="16" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="F382" s="18">
         <v>120000</v>
@@ -9755,19 +9755,19 @@
         <v>8</v>
       </c>
       <c r="C383" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D383" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E383" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D383" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="E383" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="F383" s="18">
-        <v>120000</v>
+        <v>31249</v>
       </c>
       <c r="G383" s="18">
-        <v>3000000</v>
+        <v>781242</v>
       </c>
       <c r="H383" s="19"/>
       <c r="I383" s="19"/>
@@ -9778,19 +9778,19 @@
         <v>8</v>
       </c>
       <c r="C384" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D384" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E384" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D384" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="E384" s="16" t="s">
-        <v>21</v>
-      </c>
       <c r="F384" s="18">
-        <v>120000</v>
+        <v>48000</v>
       </c>
       <c r="G384" s="18">
-        <v>3000000</v>
+        <v>1200000</v>
       </c>
       <c r="H384" s="19"/>
       <c r="I384" s="19"/>
@@ -9801,19 +9801,19 @@
         <v>8</v>
       </c>
       <c r="C385" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D385" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E385" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D385" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="E385" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="F385" s="18">
-        <v>120000</v>
+        <v>30000</v>
       </c>
       <c r="G385" s="18">
-        <v>3000000</v>
+        <v>750000</v>
       </c>
       <c r="H385" s="19"/>
       <c r="I385" s="19"/>
@@ -9824,19 +9824,19 @@
         <v>8</v>
       </c>
       <c r="C386" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D386" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E386" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D386" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="E386" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="F386" s="18">
-        <v>120000</v>
+        <v>31249</v>
       </c>
       <c r="G386" s="18">
-        <v>3000000</v>
+        <v>781242</v>
       </c>
       <c r="H386" s="19"/>
       <c r="I386" s="19"/>
@@ -9847,13 +9847,13 @@
         <v>8</v>
       </c>
       <c r="C387" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D387" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E387" s="16" t="s">
         <v>109</v>
-      </c>
-      <c r="D387" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="E387" s="16" t="s">
-        <v>24</v>
       </c>
       <c r="F387" s="18">
         <v>120000</v>
@@ -9870,19 +9870,19 @@
         <v>8</v>
       </c>
       <c r="C388" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D388" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E388" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="E388" s="16" t="s">
-        <v>25</v>
-      </c>
       <c r="F388" s="18">
-        <v>120000</v>
+        <v>31249</v>
       </c>
       <c r="G388" s="18">
-        <v>3000000</v>
+        <v>781242</v>
       </c>
       <c r="H388" s="19"/>
       <c r="I388" s="19"/>
@@ -9893,19 +9893,19 @@
         <v>8</v>
       </c>
       <c r="C389" s="16" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="D389" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E389" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="E389" s="16" t="s">
-        <v>26</v>
-      </c>
       <c r="F389" s="18">
-        <v>120000</v>
+        <v>48000</v>
       </c>
       <c r="G389" s="18">
-        <v>3000000</v>
+        <v>1200000</v>
       </c>
       <c r="H389" s="19"/>
       <c r="I389" s="19"/>
@@ -9916,19 +9916,19 @@
         <v>8</v>
       </c>
       <c r="C390" s="16" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D390" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E390" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="E390" s="16" t="s">
-        <v>27</v>
-      </c>
       <c r="F390" s="18">
-        <v>120000</v>
+        <v>30000</v>
       </c>
       <c r="G390" s="18">
-        <v>3000000</v>
+        <v>750000</v>
       </c>
       <c r="H390" s="19"/>
       <c r="I390" s="19"/>
@@ -9939,19 +9939,19 @@
         <v>8</v>
       </c>
       <c r="C391" s="16" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="D391" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E391" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="E391" s="16" t="s">
-        <v>28</v>
-      </c>
       <c r="F391" s="18">
-        <v>120000</v>
+        <v>31249</v>
       </c>
       <c r="G391" s="18">
-        <v>3000000</v>
+        <v>781242</v>
       </c>
       <c r="H391" s="19"/>
       <c r="I391" s="19"/>
@@ -9962,13 +9962,13 @@
         <v>8</v>
       </c>
       <c r="C392" s="16" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="D392" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E392" s="16" t="s">
         <v>110</v>
-      </c>
-      <c r="E392" s="16" t="s">
-        <v>29</v>
       </c>
       <c r="F392" s="18">
         <v>120000</v>
@@ -9985,19 +9985,19 @@
         <v>8</v>
       </c>
       <c r="C393" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D393" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E393" s="16" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="F393" s="18">
-        <v>120000</v>
+        <v>31249</v>
       </c>
       <c r="G393" s="18">
-        <v>3000000</v>
+        <v>781242</v>
       </c>
       <c r="H393" s="19"/>
       <c r="I393" s="19"/>
@@ -10008,19 +10008,19 @@
         <v>8</v>
       </c>
       <c r="C394" s="16" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="D394" s="17" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="E394" s="16" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="F394" s="18">
-        <v>120000</v>
+        <v>48000</v>
       </c>
       <c r="G394" s="18">
-        <v>3000000</v>
+        <v>1200000</v>
       </c>
       <c r="H394" s="19"/>
       <c r="I394" s="19"/>
@@ -10031,19 +10031,19 @@
         <v>8</v>
       </c>
       <c r="C395" s="16" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D395" s="17" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="E395" s="16" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="F395" s="18">
-        <v>120000</v>
+        <v>30000</v>
       </c>
       <c r="G395" s="18">
-        <v>3000000</v>
+        <v>750000</v>
       </c>
       <c r="H395" s="19"/>
       <c r="I395" s="19"/>
@@ -10054,19 +10054,19 @@
         <v>8</v>
       </c>
       <c r="C396" s="16" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="D396" s="17" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="E396" s="16" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="F396" s="18">
-        <v>120000</v>
+        <v>31249</v>
       </c>
       <c r="G396" s="18">
-        <v>3000000</v>
+        <v>781242</v>
       </c>
       <c r="H396" s="19"/>
       <c r="I396" s="19"/>
@@ -10077,13 +10077,13 @@
         <v>8</v>
       </c>
       <c r="C397" s="16" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="D397" s="17" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="E397" s="16" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="F397" s="18">
         <v>120000</v>
@@ -10100,19 +10100,19 @@
         <v>8</v>
       </c>
       <c r="C398" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D398" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E398" s="16" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="F398" s="18">
-        <v>120000</v>
+        <v>31249</v>
       </c>
       <c r="G398" s="18">
-        <v>3000000</v>
+        <v>781242</v>
       </c>
       <c r="H398" s="19"/>
       <c r="I398" s="19"/>
@@ -10123,19 +10123,19 @@
         <v>8</v>
       </c>
       <c r="C399" s="16" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="D399" s="17" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="E399" s="16" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="F399" s="18">
-        <v>120000</v>
+        <v>48000</v>
       </c>
       <c r="G399" s="18">
-        <v>3000000</v>
+        <v>1200000</v>
       </c>
       <c r="H399" s="19"/>
       <c r="I399" s="19"/>
@@ -10146,19 +10146,19 @@
         <v>8</v>
       </c>
       <c r="C400" s="16" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D400" s="17" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="E400" s="16" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="F400" s="18">
-        <v>120000</v>
+        <v>30000</v>
       </c>
       <c r="G400" s="18">
-        <v>3000000</v>
+        <v>750000</v>
       </c>
       <c r="H400" s="19"/>
       <c r="I400" s="19"/>
@@ -10169,19 +10169,19 @@
         <v>8</v>
       </c>
       <c r="C401" s="16" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="D401" s="17" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="E401" s="16" t="s">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="F401" s="18">
-        <v>120000</v>
+        <v>31249</v>
       </c>
       <c r="G401" s="18">
-        <v>3000000</v>
+        <v>781242</v>
       </c>
       <c r="H401" s="19"/>
       <c r="I401" s="19"/>
@@ -10192,13 +10192,13 @@
         <v>8</v>
       </c>
       <c r="C402" s="16" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="D402" s="17" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="E402" s="16" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="F402" s="18">
         <v>120000</v>
@@ -10215,19 +10215,19 @@
         <v>8</v>
       </c>
       <c r="C403" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D403" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E403" s="16" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="F403" s="18">
-        <v>120000</v>
+        <v>31249</v>
       </c>
       <c r="G403" s="18">
-        <v>3000000</v>
+        <v>781242</v>
       </c>
       <c r="H403" s="19"/>
       <c r="I403" s="19"/>
@@ -10238,19 +10238,19 @@
         <v>8</v>
       </c>
       <c r="C404" s="16" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="D404" s="17" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="E404" s="16" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="F404" s="18">
-        <v>120000</v>
+        <v>48000</v>
       </c>
       <c r="G404" s="18">
-        <v>3000000</v>
+        <v>1200000</v>
       </c>
       <c r="H404" s="19"/>
       <c r="I404" s="19"/>
@@ -10261,19 +10261,19 @@
         <v>8</v>
       </c>
       <c r="C405" s="16" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D405" s="17" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="E405" s="16" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="F405" s="18">
-        <v>120000</v>
+        <v>30000</v>
       </c>
       <c r="G405" s="18">
-        <v>3000000</v>
+        <v>750000</v>
       </c>
       <c r="H405" s="19"/>
       <c r="I405" s="19"/>
@@ -10284,19 +10284,19 @@
         <v>8</v>
       </c>
       <c r="C406" s="16" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="D406" s="17" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="E406" s="16" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="F406" s="18">
-        <v>120000</v>
+        <v>31249</v>
       </c>
       <c r="G406" s="18">
-        <v>3000000</v>
+        <v>781242</v>
       </c>
       <c r="H406" s="19"/>
       <c r="I406" s="19"/>
@@ -10307,13 +10307,13 @@
         <v>8</v>
       </c>
       <c r="C407" s="16" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="D407" s="17" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="E407" s="16" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="F407" s="18">
         <v>120000</v>
@@ -10330,19 +10330,19 @@
         <v>8</v>
       </c>
       <c r="C408" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D408" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E408" s="16" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="F408" s="18">
-        <v>120000</v>
+        <v>24999</v>
       </c>
       <c r="G408" s="18">
-        <v>3000000</v>
+        <v>781242</v>
       </c>
       <c r="H408" s="19"/>
       <c r="I408" s="19"/>
@@ -10353,19 +10353,19 @@
         <v>8</v>
       </c>
       <c r="C409" s="16" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="D409" s="17" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="E409" s="16" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="F409" s="18">
-        <v>120000</v>
+        <v>38400</v>
       </c>
       <c r="G409" s="18">
-        <v>3000000</v>
+        <v>1200000</v>
       </c>
       <c r="H409" s="19"/>
       <c r="I409" s="19"/>
@@ -10376,19 +10376,19 @@
         <v>8</v>
       </c>
       <c r="C410" s="16" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D410" s="17" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="E410" s="16" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="F410" s="18">
-        <v>120000</v>
+        <v>24000</v>
       </c>
       <c r="G410" s="18">
-        <v>3000000</v>
+        <v>750000</v>
       </c>
       <c r="H410" s="19"/>
       <c r="I410" s="19"/>
@@ -10399,19 +10399,19 @@
         <v>8</v>
       </c>
       <c r="C411" s="16" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="D411" s="17" t="s">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="E411" s="16" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="F411" s="18">
-        <v>1867</v>
+        <v>24999</v>
       </c>
       <c r="G411" s="18">
-        <v>1400000</v>
+        <v>781242</v>
       </c>
       <c r="H411" s="19"/>
       <c r="I411" s="19"/>
@@ -10422,19 +10422,19 @@
         <v>8</v>
       </c>
       <c r="C412" s="22" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="D412" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E412" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="E412" s="22" t="s">
-        <v>75</v>
-      </c>
       <c r="F412" s="24">
-        <v>19997</v>
+        <v>96000</v>
       </c>
       <c r="G412" s="24">
-        <v>789369</v>
+        <v>3000000</v>
       </c>
       <c r="H412" s="25"/>
       <c r="I412" s="25"/>
